--- a/excels/custom_heroes.xlsx
+++ b/excels/custom_heroes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="1525">
   <si>
     <t>英雄名</t>
   </si>
@@ -4615,9 +4615,6 @@
   <si>
     <t>test</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
@@ -4626,7 +4623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4651,12 +4648,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4752,7 +4743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -4832,9 +4823,6 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4847,9 +4835,6 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4857,7 +4842,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5170,7 +5155,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BN18"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A3" ySplit="2" xSplit="0"/>
@@ -5178,18 +5163,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="34" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="35" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="34" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="34" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="34" width="42.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="36" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="35" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="34" width="51.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="34" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="36" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="35" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="35" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="32" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="33" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="32" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="32" width="42.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="34" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="33" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="32" width="51.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="32" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="34" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="33" width="5.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="33" width="7.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="11" width="5.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="11" width="5.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="11" width="5.2907142857142855" customWidth="1" bestFit="1"/>
@@ -5200,50 +5185,50 @@
     <col min="20" max="20" style="11" width="5.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="11" width="5.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="22" max="22" style="11" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="35" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="35" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="35" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="35" width="40.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="37" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="35" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="35" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="35" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="35" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="35" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="35" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="35" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="35" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="35" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="35" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="35" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="35" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="35" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="36" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="36" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="36" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="36" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="38" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="38" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="36" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="36" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="36" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="35" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="37" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="35" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="37" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="33" width="5.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="33" width="5.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="33" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="33" width="40.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="35" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="33" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="33" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="33" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="33" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="33" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="33" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="33" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="33" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="33" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="33" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="33" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="33" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="33" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="34" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="34" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="34" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="34" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="36" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="36" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="34" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="34" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="34" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="34" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="33" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="35" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="33" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="35" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="13">
@@ -5596,19 +5581,19 @@
       <c r="A3" s="26" t="s">
         <v>1524</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -5619,80 +5604,68 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="32" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AD3" s="32" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AE3" s="32" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AF3" s="32" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AG3" s="32" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AH3" s="32" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="29">
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="28">
         <v>1</v>
       </c>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29">
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28">
         <v>200</v>
       </c>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="29"/>
-      <c r="BE3" s="29"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="29"/>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="29"/>
-      <c r="BK3" s="27"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="15"/>
       <c r="BL3" s="4"/>
-      <c r="BM3" s="27"/>
+      <c r="BM3" s="15"/>
       <c r="BN3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -5703,64 +5676,64 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="29"/>
-      <c r="BC4" s="29"/>
-      <c r="BD4" s="29"/>
-      <c r="BE4" s="29"/>
-      <c r="BF4" s="30"/>
-      <c r="BG4" s="30"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="33"/>
-      <c r="BJ4" s="29"/>
-      <c r="BK4" s="27"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="15"/>
       <c r="BL4" s="4"/>
-      <c r="BM4" s="27"/>
+      <c r="BM4" s="15"/>
       <c r="BN4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -5771,64 +5744,64 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="29"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="29"/>
-      <c r="BK5" s="27"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="28"/>
+      <c r="BE5" s="28"/>
+      <c r="BF5" s="29"/>
+      <c r="BG5" s="29"/>
+      <c r="BH5" s="28"/>
+      <c r="BI5" s="31"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="15"/>
       <c r="BL5" s="4"/>
-      <c r="BM5" s="27"/>
+      <c r="BM5" s="15"/>
       <c r="BN5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -5839,64 +5812,64 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="33"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="29"/>
-      <c r="AX6" s="29"/>
-      <c r="AY6" s="29"/>
-      <c r="AZ6" s="29"/>
-      <c r="BA6" s="29"/>
-      <c r="BB6" s="29"/>
-      <c r="BC6" s="29"/>
-      <c r="BD6" s="29"/>
-      <c r="BE6" s="29"/>
-      <c r="BF6" s="30"/>
-      <c r="BG6" s="30"/>
-      <c r="BH6" s="29"/>
-      <c r="BI6" s="33"/>
-      <c r="BJ6" s="29"/>
-      <c r="BK6" s="27"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="28"/>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="28"/>
+      <c r="BD6" s="28"/>
+      <c r="BE6" s="28"/>
+      <c r="BF6" s="29"/>
+      <c r="BG6" s="29"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="15"/>
       <c r="BL6" s="4"/>
-      <c r="BM6" s="27"/>
+      <c r="BM6" s="15"/>
       <c r="BN6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -5907,64 +5880,64 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="29"/>
-      <c r="BA7" s="29"/>
-      <c r="BB7" s="29"/>
-      <c r="BC7" s="29"/>
-      <c r="BD7" s="29"/>
-      <c r="BE7" s="29"/>
-      <c r="BF7" s="30"/>
-      <c r="BG7" s="30"/>
-      <c r="BH7" s="29"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="29"/>
-      <c r="BK7" s="27"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="28"/>
+      <c r="BE7" s="28"/>
+      <c r="BF7" s="29"/>
+      <c r="BG7" s="29"/>
+      <c r="BH7" s="28"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="15"/>
       <c r="BL7" s="4"/>
-      <c r="BM7" s="27"/>
+      <c r="BM7" s="15"/>
       <c r="BN7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -5975,64 +5948,64 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="29"/>
-      <c r="AW8" s="29"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="29"/>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="29"/>
-      <c r="BB8" s="29"/>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="29"/>
-      <c r="BE8" s="29"/>
-      <c r="BF8" s="30"/>
-      <c r="BG8" s="30"/>
-      <c r="BH8" s="29"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="29"/>
-      <c r="BK8" s="27"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="28"/>
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="29"/>
+      <c r="BG8" s="29"/>
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="31"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="15"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="27"/>
+      <c r="BM8" s="15"/>
       <c r="BN8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -6043,64 +6016,64 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="30"/>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="29"/>
-      <c r="BK9" s="27"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
+      <c r="AX9" s="28"/>
+      <c r="AY9" s="28"/>
+      <c r="AZ9" s="28"/>
+      <c r="BA9" s="28"/>
+      <c r="BB9" s="28"/>
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="28"/>
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="29"/>
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="15"/>
       <c r="BL9" s="4"/>
-      <c r="BM9" s="27"/>
+      <c r="BM9" s="15"/>
       <c r="BN9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -6111,64 +6084,64 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="29"/>
-      <c r="AW10" s="29"/>
-      <c r="AX10" s="29"/>
-      <c r="AY10" s="29"/>
-      <c r="AZ10" s="29"/>
-      <c r="BA10" s="29"/>
-      <c r="BB10" s="29"/>
-      <c r="BC10" s="29"/>
-      <c r="BD10" s="29"/>
-      <c r="BE10" s="29"/>
-      <c r="BF10" s="30"/>
-      <c r="BG10" s="30"/>
-      <c r="BH10" s="29"/>
-      <c r="BI10" s="33"/>
-      <c r="BJ10" s="29"/>
-      <c r="BK10" s="27"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="29"/>
+      <c r="BG10" s="29"/>
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="31"/>
+      <c r="BJ10" s="28"/>
+      <c r="BK10" s="15"/>
       <c r="BL10" s="4"/>
-      <c r="BM10" s="27"/>
+      <c r="BM10" s="15"/>
       <c r="BN10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -6179,64 +6152,64 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="29"/>
-      <c r="BE11" s="29"/>
-      <c r="BF11" s="30"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="29"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="29"/>
-      <c r="BK11" s="27"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="29"/>
+      <c r="BG11" s="29"/>
+      <c r="BH11" s="28"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="28"/>
+      <c r="BK11" s="15"/>
       <c r="BL11" s="4"/>
-      <c r="BM11" s="27"/>
+      <c r="BM11" s="15"/>
       <c r="BN11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -6247,64 +6220,64 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="30"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="29"/>
-      <c r="AW12" s="29"/>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="29"/>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="29"/>
-      <c r="BE12" s="29"/>
-      <c r="BF12" s="30"/>
-      <c r="BG12" s="30"/>
-      <c r="BH12" s="29"/>
-      <c r="BI12" s="33"/>
-      <c r="BJ12" s="29"/>
-      <c r="BK12" s="27"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="28"/>
+      <c r="BA12" s="28"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="28"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="28"/>
+      <c r="BK12" s="15"/>
       <c r="BL12" s="4"/>
-      <c r="BM12" s="27"/>
+      <c r="BM12" s="15"/>
       <c r="BN12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -6315,64 +6288,64 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="30"/>
-      <c r="BG13" s="30"/>
-      <c r="BH13" s="29"/>
-      <c r="BI13" s="33"/>
-      <c r="BJ13" s="29"/>
-      <c r="BK13" s="27"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="28"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="28"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="29"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="28"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="28"/>
+      <c r="BK13" s="15"/>
       <c r="BL13" s="4"/>
-      <c r="BM13" s="27"/>
+      <c r="BM13" s="15"/>
       <c r="BN13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -6383,64 +6356,64 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="29"/>
-      <c r="AW14" s="29"/>
-      <c r="AX14" s="29"/>
-      <c r="AY14" s="29"/>
-      <c r="AZ14" s="29"/>
-      <c r="BA14" s="29"/>
-      <c r="BB14" s="29"/>
-      <c r="BC14" s="29"/>
-      <c r="BD14" s="29"/>
-      <c r="BE14" s="29"/>
-      <c r="BF14" s="30"/>
-      <c r="BG14" s="30"/>
-      <c r="BH14" s="29"/>
-      <c r="BI14" s="33"/>
-      <c r="BJ14" s="29"/>
-      <c r="BK14" s="27"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="28"/>
+      <c r="BF14" s="29"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="31"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="15"/>
       <c r="BL14" s="4"/>
-      <c r="BM14" s="27"/>
+      <c r="BM14" s="15"/>
       <c r="BN14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -6451,64 +6424,64 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="29"/>
-      <c r="AW15" s="29"/>
-      <c r="AX15" s="29"/>
-      <c r="AY15" s="29"/>
-      <c r="AZ15" s="29"/>
-      <c r="BA15" s="29"/>
-      <c r="BB15" s="29"/>
-      <c r="BC15" s="29"/>
-      <c r="BD15" s="29"/>
-      <c r="BE15" s="29"/>
-      <c r="BF15" s="30"/>
-      <c r="BG15" s="30"/>
-      <c r="BH15" s="29"/>
-      <c r="BI15" s="33"/>
-      <c r="BJ15" s="29"/>
-      <c r="BK15" s="27"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="29"/>
+      <c r="BG15" s="29"/>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="28"/>
+      <c r="BK15" s="15"/>
       <c r="BL15" s="4"/>
-      <c r="BM15" s="27"/>
+      <c r="BM15" s="15"/>
       <c r="BN15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -6519,64 +6492,64 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="30"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="29"/>
-      <c r="AW16" s="29"/>
-      <c r="AX16" s="29"/>
-      <c r="AY16" s="29"/>
-      <c r="AZ16" s="29"/>
-      <c r="BA16" s="29"/>
-      <c r="BB16" s="29"/>
-      <c r="BC16" s="29"/>
-      <c r="BD16" s="29"/>
-      <c r="BE16" s="29"/>
-      <c r="BF16" s="30"/>
-      <c r="BG16" s="30"/>
-      <c r="BH16" s="29"/>
-      <c r="BI16" s="33"/>
-      <c r="BJ16" s="29"/>
-      <c r="BK16" s="27"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="29"/>
+      <c r="BG16" s="29"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="31"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="15"/>
       <c r="BL16" s="4"/>
-      <c r="BM16" s="27"/>
+      <c r="BM16" s="15"/>
       <c r="BN16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -6587,118 +6560,50 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="29"/>
-      <c r="AW17" s="29"/>
-      <c r="AX17" s="29"/>
-      <c r="AY17" s="29"/>
-      <c r="AZ17" s="29"/>
-      <c r="BA17" s="29"/>
-      <c r="BB17" s="29"/>
-      <c r="BC17" s="29"/>
-      <c r="BD17" s="29"/>
-      <c r="BE17" s="29"/>
-      <c r="BF17" s="30"/>
-      <c r="BG17" s="30"/>
-      <c r="BH17" s="29"/>
-      <c r="BI17" s="33"/>
-      <c r="BJ17" s="29"/>
-      <c r="BK17" s="27"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="28"/>
+      <c r="AX17" s="28"/>
+      <c r="AY17" s="28"/>
+      <c r="AZ17" s="28"/>
+      <c r="BA17" s="28"/>
+      <c r="BB17" s="28"/>
+      <c r="BC17" s="28"/>
+      <c r="BD17" s="28"/>
+      <c r="BE17" s="28"/>
+      <c r="BF17" s="29"/>
+      <c r="BG17" s="29"/>
+      <c r="BH17" s="28"/>
+      <c r="BI17" s="31"/>
+      <c r="BJ17" s="28"/>
+      <c r="BK17" s="15"/>
       <c r="BL17" s="4"/>
-      <c r="BM17" s="27"/>
+      <c r="BM17" s="15"/>
       <c r="BN17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="27"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="29"/>
-      <c r="AW18" s="29"/>
-      <c r="AX18" s="29"/>
-      <c r="AY18" s="29"/>
-      <c r="AZ18" s="29"/>
-      <c r="BA18" s="29"/>
-      <c r="BB18" s="29"/>
-      <c r="BC18" s="29"/>
-      <c r="BD18" s="29"/>
-      <c r="BE18" s="29"/>
-      <c r="BF18" s="30"/>
-      <c r="BG18" s="30"/>
-      <c r="BH18" s="29"/>
-      <c r="BI18" s="33"/>
-      <c r="BJ18" s="29"/>
-      <c r="BK18" s="27"/>
-      <c r="BL18" s="4"/>
-      <c r="BM18" s="27"/>
-      <c r="BN18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/custom_heroes.xlsx
+++ b/excels/custom_heroes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4328" uniqueCount="1524">
   <si>
     <t>英雄名</t>
   </si>
@@ -4611,9 +4611,6 @@
   </si>
   <si>
     <t>HasInventory</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -5155,7 +5152,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BN16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A3" ySplit="2" xSplit="0"/>
@@ -5578,12 +5575,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="26" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>415</v>
-      </c>
+      <c r="A3" s="26"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="27"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -5629,13 +5622,9 @@
       <c r="AS3" s="31"/>
       <c r="AT3" s="31"/>
       <c r="AU3" s="31"/>
-      <c r="AV3" s="28">
-        <v>1</v>
-      </c>
+      <c r="AV3" s="28"/>
       <c r="AW3" s="28"/>
-      <c r="AX3" s="28">
-        <v>200</v>
-      </c>
+      <c r="AX3" s="28"/>
       <c r="AY3" s="28"/>
       <c r="AZ3" s="28"/>
       <c r="BA3" s="28"/>
@@ -6469,7 +6458,7 @@
       <c r="BM15" s="15"/>
       <c r="BN15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="26"/>
       <c r="B16" s="15"/>
       <c r="C16" s="27"/>
@@ -6537,74 +6526,6 @@
       <c r="BM16" s="15"/>
       <c r="BN16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="28"/>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="28"/>
-      <c r="AY17" s="28"/>
-      <c r="AZ17" s="28"/>
-      <c r="BA17" s="28"/>
-      <c r="BB17" s="28"/>
-      <c r="BC17" s="28"/>
-      <c r="BD17" s="28"/>
-      <c r="BE17" s="28"/>
-      <c r="BF17" s="29"/>
-      <c r="BG17" s="29"/>
-      <c r="BH17" s="28"/>
-      <c r="BI17" s="31"/>
-      <c r="BJ17" s="28"/>
-      <c r="BK17" s="15"/>
-      <c r="BL17" s="4"/>
-      <c r="BM17" s="15"/>
-      <c r="BN17" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
